--- a/расчеты.xlsx
+++ b/расчеты.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1635467476" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1635467476" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1635467476"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1635467476"/>
+      <pm:revision xmlns:pm="smNativeData" day="1635468038" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1635468038" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1635468038"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1635468038"/>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +83,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1635467476" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1635468038" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -98,7 +98,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1635467476" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1635468038" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -120,7 +120,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1635467476" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1635468038" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -169,7 +169,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476"/>
+          <pm:border xmlns:pm="smNativeData" id="1635468038"/>
         </ext>
       </extLst>
     </border>
@@ -188,7 +188,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476"/>
+          <pm:border xmlns:pm="smNativeData" id="1635468038"/>
         </ext>
       </extLst>
     </border>
@@ -207,7 +207,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -231,7 +231,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -255,7 +255,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -279,7 +279,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -303,7 +303,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -327,7 +327,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -351,7 +351,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
@@ -375,7 +375,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -399,7 +399,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1635467476">
+          <pm:border xmlns:pm="smNativeData" id="1635468038">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -430,7 +430,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1635467476" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1635468038" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -697,7 +697,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -742,78 +742,168 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="5" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2696</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>2277</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>4432</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>900</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>390</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>490</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="8">
+        <f>SUM(B3:B8)</f>
+        <v>1809</v>
+      </c>
+      <c r="C9" s="8">
+        <f>SUM(C3:C8)</f>
+        <v>4663</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM(D3:D8)</f>
+        <v>2736</v>
+      </c>
+      <c r="E9" s="8">
+        <f>SUM(E3:E8)</f>
+        <v>7626</v>
+      </c>
+      <c r="F9" s="8">
+        <f>SUM(F3:F8)</f>
+        <v>3907</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G3:G8)</f>
+        <v>10642</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -824,7 +914,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1635467476" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1635468038" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -833,14 +923,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1635467476" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1635467476" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1635468038" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1635468038" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1635467476" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1635468038" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
